--- a/results/DeterministicUSM/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.5909090909090909</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q2">
-        <v>1.140723774018237</v>
+        <v>1.005086230657286</v>
       </c>
       <c r="R2">
-        <v>30.63756300543466</v>
+        <v>40.71517108319197</v>
       </c>
       <c r="S2">
-        <v>3.129032258064516</v>
+        <v>2.732142857142857</v>
       </c>
       <c r="T2">
-        <v>3.166666666666667</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.152679509938385</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="V2">
-        <v>18.25176882110906</v>
+        <v>18.0277542266378</v>
       </c>
       <c r="W2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="X2">
         <v>876</v>
       </c>
       <c r="Y2">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="Z2">
-        <v>1.033333333333333</v>
+        <v>1.073170731707317</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.2738095238095238</v>
+        <v>0.5642857142857143</v>
       </c>
       <c r="O3">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="Q3">
-        <v>1.131402111491101</v>
+        <v>0.9959581346080264</v>
       </c>
       <c r="R3">
-        <v>38.74391554035598</v>
+        <v>58.33143296214183</v>
       </c>
       <c r="S3">
-        <v>3.1</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="T3">
-        <v>1.575</v>
+        <v>3.46875</v>
       </c>
       <c r="U3">
-        <v>0.4542552722775964</v>
+        <v>1.243794298512608</v>
       </c>
       <c r="V3">
-        <v>4.829789108896144</v>
+        <v>39.19858244759656</v>
       </c>
       <c r="W3">
-        <v>967</v>
+        <v>911</v>
       </c>
       <c r="X3">
         <v>990</v>
       </c>
       <c r="Y3">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="Z3">
-        <v>1.067328918322296</v>
+        <v>1.071764705882353</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.293103448275862</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="O4">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1.076139432816051</v>
+        <v>1.003302108863785</v>
       </c>
       <c r="R4">
-        <v>25.71581701551847</v>
+        <v>39.81838401249183</v>
       </c>
       <c r="S4">
-        <v>2.933333333333333</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="T4">
-        <v>1.68</v>
+        <v>2.422222222222222</v>
       </c>
       <c r="U4">
-        <v>0.5187937934151675</v>
+        <v>0.8846853924588238</v>
       </c>
       <c r="V4">
-        <v>4.030155164620812</v>
+        <v>24.18915733935293</v>
       </c>
       <c r="W4">
-        <v>735</v>
+        <v>688</v>
       </c>
       <c r="X4">
         <v>752</v>
       </c>
       <c r="Y4">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="Z4">
-        <v>1.059077809798271</v>
+        <v>1.047184170471842</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.2268041237113402</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="O5">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="P5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>1.585145219865056</v>
+        <v>1.340250422618484</v>
       </c>
       <c r="R5">
-        <v>57.37136950337361</v>
+        <v>73.98747886907582</v>
       </c>
       <c r="S5">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
       <c r="T5">
-        <v>1.523809523809524</v>
+        <v>2.432835820895523</v>
       </c>
       <c r="U5">
-        <v>0.4212134650763035</v>
+        <v>0.8890575814157964</v>
       </c>
       <c r="V5">
-        <v>4.309034466795254</v>
+        <v>36.43314204514164</v>
       </c>
       <c r="W5">
-        <v>1085</v>
+        <v>1011</v>
       </c>
       <c r="X5">
         <v>1107</v>
       </c>
       <c r="Y5">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="Z5">
-        <v>1.074257425742574</v>
+        <v>1.046583850931677</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.453125</v>
+        <v>0.34375</v>
       </c>
       <c r="O6">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q6">
-        <v>1.845826690498331</v>
+        <v>1.241713132308783</v>
       </c>
       <c r="R6">
-        <v>41.85007971402003</v>
+        <v>47.57318783995746</v>
       </c>
       <c r="S6">
-        <v>6.333333333333333</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="T6">
-        <v>2.208333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="U6">
-        <v>0.7922380832041763</v>
+        <v>0.5596157879354227</v>
       </c>
       <c r="V6">
-        <v>9.986286003099767</v>
+        <v>8.376905330841403</v>
       </c>
       <c r="W6">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="X6">
         <v>802</v>
       </c>
       <c r="Y6">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="Z6">
-        <v>1.047425474254743</v>
+        <v>1.089235127478754</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I7">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.7522123893805309</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="O7">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>1.36031887471663</v>
+        <v>1.33828514193353</v>
       </c>
       <c r="R7">
-        <v>59.94756388605143</v>
+        <v>94.34975091625408</v>
       </c>
       <c r="S7">
-        <v>3.897435897435897</v>
+        <v>3.8125</v>
       </c>
       <c r="T7">
-        <v>2.808510638297872</v>
+        <v>2.76056338028169</v>
       </c>
       <c r="U7">
-        <v>1.032654320876312</v>
+        <v>1.015434782189202</v>
       </c>
       <c r="V7">
-        <v>36.46524691881332</v>
+        <v>52.90413046456668</v>
       </c>
       <c r="W7">
-        <v>952</v>
+        <v>912</v>
       </c>
       <c r="X7">
         <v>1037</v>
       </c>
       <c r="Y7">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="Z7">
-        <v>1.03030303030303</v>
+        <v>1.064177362893816</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.2678571428571428</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="O8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="P8">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q8">
-        <v>0.9921288082656595</v>
+        <v>0.878550403891308</v>
       </c>
       <c r="R8">
-        <v>23.25974932723324</v>
+        <v>28.55827818986937</v>
       </c>
       <c r="S8">
-        <v>2.696969696969697</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="T8">
-        <v>1.357142857142857</v>
+        <v>2.522727272727273</v>
       </c>
       <c r="U8">
-        <v>0.3053816495511819</v>
+        <v>0.925340567394073</v>
       </c>
       <c r="V8">
-        <v>2.173970718850359</v>
+        <v>26.28501503466079</v>
       </c>
       <c r="W8">
-        <v>690</v>
+        <v>638</v>
       </c>
       <c r="X8">
         <v>705</v>
       </c>
       <c r="Y8">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="Z8">
-        <v>1.063174114021572</v>
+        <v>1.014308426073132</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I9">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.8974358974358975</v>
+        <v>0.7890625</v>
       </c>
       <c r="O9">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="P9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>1.47962630091211</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="R9">
-        <v>43.96859507902148</v>
+        <v>65.63441676174747</v>
       </c>
       <c r="S9">
-        <v>4.391304347826087</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="T9">
-        <v>4.043478260869565</v>
+        <v>4.74074074074074</v>
       </c>
       <c r="U9">
-        <v>1.397105277224106</v>
+        <v>1.556193397915288</v>
       </c>
       <c r="V9">
-        <v>37.86657862384556</v>
+        <v>58.98277825628723</v>
       </c>
       <c r="W9">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="X9">
         <v>896</v>
       </c>
       <c r="Y9">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="Z9">
-        <v>1.009779951100245</v>
+        <v>1.03515625</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.5576923076923077</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="O10">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="Q10">
-        <v>1.280933845462064</v>
+        <v>1.042653635020065</v>
       </c>
       <c r="R10">
-        <v>26.38132309075872</v>
+        <v>38.90997188401681</v>
       </c>
       <c r="S10">
-        <v>3.6</v>
+        <v>2.836734693877551</v>
       </c>
       <c r="T10">
-        <v>2.705882352941177</v>
+        <v>2.348837209302326</v>
       </c>
       <c r="U10">
-        <v>0.995428052432879</v>
+        <v>0.8539204011476971</v>
       </c>
       <c r="V10">
-        <v>12.07772310864106</v>
+        <v>21.28142275064903</v>
       </c>
       <c r="W10">
-        <v>861</v>
+        <v>832</v>
       </c>
       <c r="X10">
         <v>890</v>
       </c>
       <c r="Y10">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="Z10">
-        <v>1.02744630071599</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.550561797752809</v>
+        <v>0.5379310344827586</v>
       </c>
       <c r="O11">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>1.695615608675153</v>
+        <v>1.551374111479339</v>
       </c>
       <c r="R11">
-        <v>55.08768782649695</v>
+        <v>84.49640965230577</v>
       </c>
       <c r="S11">
-        <v>5.45</v>
+        <v>4.717948717948718</v>
       </c>
       <c r="T11">
-        <v>2.225</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="U11">
-        <v>0.7997569156182036</v>
+        <v>1.049822124498678</v>
       </c>
       <c r="V11">
-        <v>17.00972337527185</v>
+        <v>33.90747077105554</v>
       </c>
       <c r="W11">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="X11">
         <v>936</v>
       </c>
       <c r="Y11">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="Z11">
-        <v>1.047225501770956</v>
+        <v>1.084702907711757</v>
       </c>
     </row>
   </sheetData>
